--- a/part-3 DHCP/subnetting of all port.xlsx
+++ b/part-3 DHCP/subnetting of all port.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CiscoPacketTracer\part-2 perform subnetting &amp; basic router config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34A9C59-E469-4118-A910-16D36D4A5E8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC7C4D7-77DB-4149-B374-C83E40C612DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C61DD1E7-C80E-488A-8AFA-0C50E3D193F3}"/>
+    <workbookView xWindow="4668" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{C61DD1E7-C80E-488A-8AFA-0C50E3D193F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -228,16 +228,16 @@
 255.255.255.224</t>
   </si>
   <si>
-    <t>/31
-255.255.255.254</t>
-  </si>
-  <si>
     <t>/26
 255.255.255.192</t>
   </si>
   <si>
     <t>/25
 255.255.255.128</t>
+  </si>
+  <si>
+    <t>/30
+255.255.255.254</t>
   </si>
 </sst>
 </file>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7772A4-FDE4-4846-AE58-BC2563D9EA9E}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,7 +804,7 @@
         <v>33</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>34</v>
@@ -830,7 +830,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>40</v>
@@ -882,7 +882,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>51</v>
@@ -908,7 +908,7 @@
         <v>50</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>55</v>
@@ -934,7 +934,7 @@
         <v>50</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>59</v>

--- a/part-3 DHCP/subnetting of all port.xlsx
+++ b/part-3 DHCP/subnetting of all port.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CiscoPacketTracer\part-2 perform subnetting &amp; basic router config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CiscoPacketTracer\part-3 DHCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC7C4D7-77DB-4149-B374-C83E40C612DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49133B5-C957-4730-89BA-5E114F46DD65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4668" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{C61DD1E7-C80E-488A-8AFA-0C50E3D193F3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C61DD1E7-C80E-488A-8AFA-0C50E3D193F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
   </si>
   <si>
     <t>/30
-255.255.255.254</t>
+255.255.255.252</t>
   </si>
 </sst>
 </file>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7772A4-FDE4-4846-AE58-BC2563D9EA9E}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
